--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14" count="14">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43" count="43">
   <x:si>
     <x:t>title</x:t>
   </x:si>
@@ -31,31 +31,118 @@
     <x:t>book_id</x:t>
   </x:si>
   <x:si>
-    <x:t>harrypottrt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>foreign</x:t>
-  </x:si>
-  <x:si>
-    <x:t>harry</x:t>
-  </x:si>
-  <x:si>
-    <x:t>disney</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cse46</x:t>
-  </x:si>
-  <x:si>
-    <x:t>spiderman</x:t>
-  </x:si>
-  <x:si>
-    <x:t>stanlee</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sony</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cse47</x:t>
+    <x:t>Avengers</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Foreign</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stan Lee</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marvel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CSE10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Call of Duty</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Michael Schiffer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Activision</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CSE11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Raji: An Ancient Epic</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Local</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Avichal Singh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Super.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CSE12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Batman:Last Knight</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bob Kane</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CSE13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ben 10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Duncan Rouleau</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cartoon Network</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CSE14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wings of Fire</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A. P. J. Abdul Kalam</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Universities Press</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CSE15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The Discovery of India</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jawaharlal Nehru</x:t>
+  </x:si>
+  <x:si>
+    <x:t>John Day (US) Meridian Books (UK)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CSE16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The Story of My Experiments with Truth</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahatma Gandhi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Public Affairs Press of Washington</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CSE17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The Da Vinci Code</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dan Brown</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Doubleday</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CSE18</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -469,6 +556,125 @@
         <x:v>13</x:v>
       </x:c>
     </x:row>
+    <x:row r="4" spans="1:5">
+      <x:c r="A4" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:5">
+      <x:c r="A5" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:5">
+      <x:c r="A6" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:5">
+      <x:c r="A7" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:5">
+      <x:c r="A8" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:5">
+      <x:c r="A9" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:5">
+      <x:c r="A10" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -43,7 +43,7 @@
     <x:t>Marvel</x:t>
   </x:si>
   <x:si>
-    <x:t>CSE10</x:t>
+    <x:t>CSE226</x:t>
   </x:si>
   <x:si>
     <x:t>Call of Duty</x:t>
@@ -55,7 +55,7 @@
     <x:t>Activision</x:t>
   </x:si>
   <x:si>
-    <x:t>CSE11</x:t>
+    <x:t>CSE227</x:t>
   </x:si>
   <x:si>
     <x:t>Raji: An Ancient Epic</x:t>
@@ -70,7 +70,7 @@
     <x:t>Super.com</x:t>
   </x:si>
   <x:si>
-    <x:t>CSE12</x:t>
+    <x:t>CSE228</x:t>
   </x:si>
   <x:si>
     <x:t>Batman:Last Knight</x:t>
@@ -82,7 +82,7 @@
     <x:t>DC</x:t>
   </x:si>
   <x:si>
-    <x:t>CSE13</x:t>
+    <x:t>CSE229</x:t>
   </x:si>
   <x:si>
     <x:t>Ben 10</x:t>
@@ -94,7 +94,7 @@
     <x:t>Cartoon Network</x:t>
   </x:si>
   <x:si>
-    <x:t>CSE14</x:t>
+    <x:t>CSE230</x:t>
   </x:si>
   <x:si>
     <x:t>Wings of Fire</x:t>
@@ -106,7 +106,7 @@
     <x:t>Universities Press</x:t>
   </x:si>
   <x:si>
-    <x:t>CSE15</x:t>
+    <x:t>CSE231</x:t>
   </x:si>
   <x:si>
     <x:t>The Discovery of India</x:t>
@@ -118,7 +118,7 @@
     <x:t>John Day (US) Meridian Books (UK)</x:t>
   </x:si>
   <x:si>
-    <x:t>CSE16</x:t>
+    <x:t>CSE232</x:t>
   </x:si>
   <x:si>
     <x:t>The Story of My Experiments with Truth</x:t>
@@ -130,7 +130,7 @@
     <x:t>Public Affairs Press of Washington</x:t>
   </x:si>
   <x:si>
-    <x:t>CSE17</x:t>
+    <x:t>CSE233</x:t>
   </x:si>
   <x:si>
     <x:t>The Da Vinci Code</x:t>
@@ -142,7 +142,7 @@
     <x:t>Doubleday</x:t>
   </x:si>
   <x:si>
-    <x:t>CSE18</x:t>
+    <x:t>CSE234</x:t>
   </x:si>
 </x:sst>
 </file>

--- a/data.xlsx
+++ b/data.xlsx
@@ -43,7 +43,7 @@
     <x:t>Marvel</x:t>
   </x:si>
   <x:si>
-    <x:t>CSE226</x:t>
+    <x:t>ECE237</x:t>
   </x:si>
   <x:si>
     <x:t>Call of Duty</x:t>
@@ -55,7 +55,7 @@
     <x:t>Activision</x:t>
   </x:si>
   <x:si>
-    <x:t>CSE227</x:t>
+    <x:t>ECE238</x:t>
   </x:si>
   <x:si>
     <x:t>Raji: An Ancient Epic</x:t>
@@ -70,7 +70,7 @@
     <x:t>Super.com</x:t>
   </x:si>
   <x:si>
-    <x:t>CSE228</x:t>
+    <x:t>ECE239</x:t>
   </x:si>
   <x:si>
     <x:t>Batman:Last Knight</x:t>
@@ -82,7 +82,7 @@
     <x:t>DC</x:t>
   </x:si>
   <x:si>
-    <x:t>CSE229</x:t>
+    <x:t>ECE240</x:t>
   </x:si>
   <x:si>
     <x:t>Ben 10</x:t>
@@ -94,7 +94,7 @@
     <x:t>Cartoon Network</x:t>
   </x:si>
   <x:si>
-    <x:t>CSE230</x:t>
+    <x:t>ECE241</x:t>
   </x:si>
   <x:si>
     <x:t>Wings of Fire</x:t>
@@ -106,7 +106,7 @@
     <x:t>Universities Press</x:t>
   </x:si>
   <x:si>
-    <x:t>CSE231</x:t>
+    <x:t>ECE242</x:t>
   </x:si>
   <x:si>
     <x:t>The Discovery of India</x:t>
@@ -118,7 +118,7 @@
     <x:t>John Day (US) Meridian Books (UK)</x:t>
   </x:si>
   <x:si>
-    <x:t>CSE232</x:t>
+    <x:t>ECE243</x:t>
   </x:si>
   <x:si>
     <x:t>The Story of My Experiments with Truth</x:t>
@@ -130,7 +130,7 @@
     <x:t>Public Affairs Press of Washington</x:t>
   </x:si>
   <x:si>
-    <x:t>CSE233</x:t>
+    <x:t>ECE244</x:t>
   </x:si>
   <x:si>
     <x:t>The Da Vinci Code</x:t>
@@ -142,7 +142,7 @@
     <x:t>Doubleday</x:t>
   </x:si>
   <x:si>
-    <x:t>CSE234</x:t>
+    <x:t>ECE245</x:t>
   </x:si>
 </x:sst>
 </file>

--- a/data.xlsx
+++ b/data.xlsx
@@ -43,7 +43,7 @@
     <x:t>Marvel</x:t>
   </x:si>
   <x:si>
-    <x:t>ECE237</x:t>
+    <x:t>CSE278</x:t>
   </x:si>
   <x:si>
     <x:t>Call of Duty</x:t>
@@ -55,7 +55,7 @@
     <x:t>Activision</x:t>
   </x:si>
   <x:si>
-    <x:t>ECE238</x:t>
+    <x:t>CSE279</x:t>
   </x:si>
   <x:si>
     <x:t>Raji: An Ancient Epic</x:t>
@@ -70,7 +70,7 @@
     <x:t>Super.com</x:t>
   </x:si>
   <x:si>
-    <x:t>ECE239</x:t>
+    <x:t>CSE280</x:t>
   </x:si>
   <x:si>
     <x:t>Batman:Last Knight</x:t>
@@ -82,7 +82,7 @@
     <x:t>DC</x:t>
   </x:si>
   <x:si>
-    <x:t>ECE240</x:t>
+    <x:t>CSE281</x:t>
   </x:si>
   <x:si>
     <x:t>Ben 10</x:t>
@@ -94,7 +94,7 @@
     <x:t>Cartoon Network</x:t>
   </x:si>
   <x:si>
-    <x:t>ECE241</x:t>
+    <x:t>CSE282</x:t>
   </x:si>
   <x:si>
     <x:t>Wings of Fire</x:t>
@@ -106,7 +106,7 @@
     <x:t>Universities Press</x:t>
   </x:si>
   <x:si>
-    <x:t>ECE242</x:t>
+    <x:t>CSE283</x:t>
   </x:si>
   <x:si>
     <x:t>The Discovery of India</x:t>
@@ -118,7 +118,7 @@
     <x:t>John Day (US) Meridian Books (UK)</x:t>
   </x:si>
   <x:si>
-    <x:t>ECE243</x:t>
+    <x:t>CSE284</x:t>
   </x:si>
   <x:si>
     <x:t>The Story of My Experiments with Truth</x:t>
@@ -130,7 +130,7 @@
     <x:t>Public Affairs Press of Washington</x:t>
   </x:si>
   <x:si>
-    <x:t>ECE244</x:t>
+    <x:t>CSE285</x:t>
   </x:si>
   <x:si>
     <x:t>The Da Vinci Code</x:t>
@@ -142,7 +142,7 @@
     <x:t>Doubleday</x:t>
   </x:si>
   <x:si>
-    <x:t>ECE245</x:t>
+    <x:t>CSE286</x:t>
   </x:si>
 </x:sst>
 </file>

--- a/data.xlsx
+++ b/data.xlsx
@@ -43,7 +43,7 @@
     <x:t>Marvel</x:t>
   </x:si>
   <x:si>
-    <x:t>CSE278</x:t>
+    <x:t>CSE12</x:t>
   </x:si>
   <x:si>
     <x:t>Call of Duty</x:t>
@@ -55,7 +55,7 @@
     <x:t>Activision</x:t>
   </x:si>
   <x:si>
-    <x:t>CSE279</x:t>
+    <x:t>CSE13</x:t>
   </x:si>
   <x:si>
     <x:t>Raji: An Ancient Epic</x:t>
@@ -70,7 +70,7 @@
     <x:t>Super.com</x:t>
   </x:si>
   <x:si>
-    <x:t>CSE280</x:t>
+    <x:t>CSE14</x:t>
   </x:si>
   <x:si>
     <x:t>Batman:Last Knight</x:t>
@@ -82,7 +82,7 @@
     <x:t>DC</x:t>
   </x:si>
   <x:si>
-    <x:t>CSE281</x:t>
+    <x:t>CSE15</x:t>
   </x:si>
   <x:si>
     <x:t>Ben 10</x:t>
@@ -94,7 +94,7 @@
     <x:t>Cartoon Network</x:t>
   </x:si>
   <x:si>
-    <x:t>CSE282</x:t>
+    <x:t>CSE16</x:t>
   </x:si>
   <x:si>
     <x:t>Wings of Fire</x:t>
@@ -106,7 +106,7 @@
     <x:t>Universities Press</x:t>
   </x:si>
   <x:si>
-    <x:t>CSE283</x:t>
+    <x:t>CSE17</x:t>
   </x:si>
   <x:si>
     <x:t>The Discovery of India</x:t>
@@ -118,7 +118,7 @@
     <x:t>John Day (US) Meridian Books (UK)</x:t>
   </x:si>
   <x:si>
-    <x:t>CSE284</x:t>
+    <x:t>CSE18</x:t>
   </x:si>
   <x:si>
     <x:t>The Story of My Experiments with Truth</x:t>
@@ -130,7 +130,7 @@
     <x:t>Public Affairs Press of Washington</x:t>
   </x:si>
   <x:si>
-    <x:t>CSE285</x:t>
+    <x:t>CSE19</x:t>
   </x:si>
   <x:si>
     <x:t>The Da Vinci Code</x:t>
@@ -142,7 +142,7 @@
     <x:t>Doubleday</x:t>
   </x:si>
   <x:si>
-    <x:t>CSE286</x:t>
+    <x:t>CSE20</x:t>
   </x:si>
 </x:sst>
 </file>

--- a/data.xlsx
+++ b/data.xlsx
@@ -43,7 +43,7 @@
     <x:t>Marvel</x:t>
   </x:si>
   <x:si>
-    <x:t>CSE12</x:t>
+    <x:t>CSE21</x:t>
   </x:si>
   <x:si>
     <x:t>Call of Duty</x:t>
@@ -55,7 +55,7 @@
     <x:t>Activision</x:t>
   </x:si>
   <x:si>
-    <x:t>CSE13</x:t>
+    <x:t>CSE22</x:t>
   </x:si>
   <x:si>
     <x:t>Raji: An Ancient Epic</x:t>
@@ -70,7 +70,7 @@
     <x:t>Super.com</x:t>
   </x:si>
   <x:si>
-    <x:t>CSE14</x:t>
+    <x:t>CSE23</x:t>
   </x:si>
   <x:si>
     <x:t>Batman:Last Knight</x:t>
@@ -82,7 +82,7 @@
     <x:t>DC</x:t>
   </x:si>
   <x:si>
-    <x:t>CSE15</x:t>
+    <x:t>CSE24</x:t>
   </x:si>
   <x:si>
     <x:t>Ben 10</x:t>
@@ -94,7 +94,7 @@
     <x:t>Cartoon Network</x:t>
   </x:si>
   <x:si>
-    <x:t>CSE16</x:t>
+    <x:t>CSE25</x:t>
   </x:si>
   <x:si>
     <x:t>Wings of Fire</x:t>
@@ -106,7 +106,7 @@
     <x:t>Universities Press</x:t>
   </x:si>
   <x:si>
-    <x:t>CSE17</x:t>
+    <x:t>CSE26</x:t>
   </x:si>
   <x:si>
     <x:t>The Discovery of India</x:t>
@@ -118,7 +118,7 @@
     <x:t>John Day (US) Meridian Books (UK)</x:t>
   </x:si>
   <x:si>
-    <x:t>CSE18</x:t>
+    <x:t>CSE27</x:t>
   </x:si>
   <x:si>
     <x:t>The Story of My Experiments with Truth</x:t>
@@ -130,7 +130,7 @@
     <x:t>Public Affairs Press of Washington</x:t>
   </x:si>
   <x:si>
-    <x:t>CSE19</x:t>
+    <x:t>CSE28</x:t>
   </x:si>
   <x:si>
     <x:t>The Da Vinci Code</x:t>
@@ -142,7 +142,7 @@
     <x:t>Doubleday</x:t>
   </x:si>
   <x:si>
-    <x:t>CSE20</x:t>
+    <x:t>CSE29</x:t>
   </x:si>
 </x:sst>
 </file>
